--- a/biology/Médecine/John_Noland_Mackenzie/John_Noland_Mackenzie.xlsx
+++ b/biology/Médecine/John_Noland_Mackenzie/John_Noland_Mackenzie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Noland Mackenzie (1853-1925) est un rhino-laryngologiste américain connu pour ses travaux sur les liens entre odorat et sexualité.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Noland Mackenzie est reçu docteur en médecine à l'université de Virginie en 1876 ; il poursuit des études de troisième cycle avec Max Oertel à Munich et Leopold von Schroetter et Carl Stoerk à Vienne (Stoerk est l'un des six hommes qui, en 1887, votèrent pour l'admission de Sigmund Freud à la Société des médecins de Vienne). Après son retour en Amérique, Mackenzie est nommé professeur à l'université du Maryland (1887-1897) et à l'école de médecine de l'université Johns Hopkins (1889-1912). Il devient également codirecteur du Maryland Medical Journal et éditeur américain du prestigieux British Journal of Laryngologie et Rhinology. Rapidement reconnue partout comme une autorité de premier rang, il est élu membre de l'Association Laryngologique américaine en 1883 ; en devient le vice-président en 1886 et le président en 1889. Largement connu et apprécié à l'étranger, il est correspondant des associations médicales britanniques, françaises et  allemandes de premier plan[Sources 1].
 </t>
@@ -542,7 +556,9 @@
           <t>Odorat et sexualité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rapports entre l'odorat et la sexualité faisaient partie des croyances populaires depuis des temps très anciens : on alléguait l'évidence de ce lien chez les animaux et des dictons courants associaient un « gros nez » avec de « gros organes génitaux. » — Dans le système de pensée racial de la fin du XIXe siècle et du début du XXe siècle, une croyance commune était que le « gros nez » supposé des Juifs allait de pair avec une sexualité supposée « hors norme »[Sources 2]
 Les rapports entre odorat et sexualité commencèrent de faire l'objet d'études savantes au début du XIXe siècle. En 1835, G. Valentin nota le parallélisme du développement embryologique des tissus rhino-laryngiques et sexuels. Plus tard, dans une perspective évolutionniste, Haeckel postula que le développement parallèle des organes de l'odorat et de la sexualité dans l'embryon impliquait une origine primitive commune. Krafft-Ebing, en 1886, développe longuement les rapports entre odorat et sexualité dans le chapitre 2 de Psychopathia Sexualis.
@@ -574,7 +590,9 @@
           <t>Les travaux de J. N. Mackenzie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1884, Mackenzie publie ses réflexions sur le sujet, motivées par les observations suivantes[Sources 3] :
 Les tissus nasaux semblent exsuder de façon régulière pendant les menstruations ;
@@ -612,7 +630,9 @@
           <t>La postérité de Mackenzie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le médecin oto-rhino-larynguologiste allemand Wilhelm Fliess aboutit de façon indépendante aux mêmes idées que Mackenzie sur les liens entre organes de l'odorat et organes génitaux. Il reconnut d'ailleurs l'antériorité de Mackenzie sur ce sujet.
 Fliess était un ami de Freud avec lequel il entretint une abondante correspondance (jusqu'en 1902, où leurs relation cessèrent brutalement sur une fâcherie).
